--- a/biology/Zoologie/Atelopus_mandingues/Atelopus_mandingues.xlsx
+++ b/biology/Zoologie/Atelopus_mandingues/Atelopus_mandingues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus mandingues est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus mandingues est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département de Cundinamarca en Colombie[1]. Elle se rencontre entre 2 900 et 3 350 m d'altitude dans la cordillère Orientale.
-Elle vit dans le páramo ainsi que dans la forêt de nuage. Elle ne s'adapte pas aux habitats dégradés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département de Cundinamarca en Colombie. Elle se rencontre entre 2 900 et 3 350 m d'altitude dans la cordillère Orientale.
+Elle vit dans le páramo ainsi que dans la forêt de nuage. Elle ne s'adapte pas aux habitats dégradés.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au surnom donné par Pedro Miguel Ruíz-Carranza aux biologistes OIga Montenegro et Hugo López[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au surnom donné par Pedro Miguel Ruíz-Carranza aux biologistes OIga Montenegro et Hugo López.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Osorno-Muñoz, Ardila-Robayo &amp; Ruiz-Carranza, 2001 : Tres nuevas especie de Atelopus A. M. C. Dumeril &amp; Bibron, 1841 (Aphibia: Bufonidae) de las partes altas de la Cordillera Oriental Colombiana. Caldasia, vol. 23, no 2, p. 509-522 (texte intégral).</t>
         </is>
